--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28280" windowHeight="14940"/>
+    <workbookView windowWidth="28345" windowHeight="14897"/>
   </bookViews>
   <sheets>
     <sheet name="StartMachineConfig" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Id</t>
   </si>
@@ -43,7 +43,10 @@
     <t>string</t>
   </si>
   <si>
-    <t>127.0.0.1</t>
+    <t>172.21.16.15</t>
+  </si>
+  <si>
+    <t>43.138.60.73</t>
   </si>
 </sst>
 </file>
@@ -51,12 +54,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,10 +81,33 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -92,27 +118,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -124,8 +154,62 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,6 +217,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,89 +237,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -244,6 +253,114 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -256,19 +373,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,151 +427,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,6 +444,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -453,20 +480,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,36 +534,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -538,152 +547,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -698,57 +707,58 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -1044,20 +1054,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:F6"/>
+  <dimension ref="C3:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.85" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.9326923076923" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.1261261261261" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7477477477477" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.6216216216216" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.9369369369369" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1107,15 +1117,18 @@
       <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>9</v>
+      <c r="E6" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F6" s="5">
-        <v>10000</v>
-      </c>
+        <v>10007</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4">
+      <c r="D7" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -43,10 +43,10 @@
     <t>string</t>
   </si>
   <si>
-    <t>172.21.16.15</t>
+    <t>172.29.230.210</t>
   </si>
   <si>
-    <t>43.138.60.73</t>
+    <t>59.110.220.207</t>
   </si>
 </sst>
 </file>
@@ -59,7 +59,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +84,12 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
     <font>
@@ -547,152 +553,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -708,6 +714,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1059,7 +1066,7 @@
   <dimension ref="C3:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.85" outlineLevelRow="6" outlineLevelCol="5"/>
@@ -1127,8 +1134,9 @@
         <v>10007</v>
       </c>
     </row>
-    <row r="7" spans="4:4">
+    <row r="7" ht="14.55" spans="4:5">
       <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -54,12 +54,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,14 +87,66 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF333333"/>
-      <name val="Segoe UI"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -104,6 +156,29 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,36 +192,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,16 +223,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,70 +232,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -259,181 +253,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,20 +447,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,32 +507,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,6 +521,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,152 +547,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -714,7 +708,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1063,7 +1056,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:F7"/>
+  <dimension ref="B3:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
@@ -1124,19 +1117,22 @@
       <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="5">
         <v>10007</v>
       </c>
     </row>
-    <row r="7" ht="14.55" spans="4:5">
+    <row r="7" spans="2:6">
+      <c r="B7" s="1"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="7"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EBBEEA-770E-4CA7-B076-BB0F5478DF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35D5AB1-BDAF-40D2-AD5C-E9543602ADD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1520" yWindow="1520" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -456,7 +456,7 @@
   <dimension ref="B3:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -511,9 +511,7 @@
       </c>
     </row>
     <row r="6" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="B6" s="7"/>
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -528,7 +526,9 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="1"/>
+      <c r="B7" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35D5AB1-BDAF-40D2-AD5C-E9543602ADD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAB3EF3-CB12-4E9D-A4E3-9883B731D06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2200" yWindow="2200" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartMachineConfig" sheetId="1" r:id="rId1"/>
@@ -79,6 +79,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -86,11 +87,13 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAB3EF3-CB12-4E9D-A4E3-9883B731D06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08A07DD-DCE9-49B6-BD65-C7B893CB1F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="2200" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -131,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -148,9 +148,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -459,7 +456,7 @@
   <dimension ref="B3:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -514,7 +511,6 @@
       </c>
     </row>
     <row r="6" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -529,7 +525,7 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="5">

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08A07DD-DCE9-49B6-BD65-C7B893CB1F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D6EE2E-2DA9-4AB5-8412-2E5BEDA6D650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="2200" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2540" yWindow="2540" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartMachineConfig" sheetId="1" r:id="rId1"/>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D6EE2E-2DA9-4AB5-8412-2E5BEDA6D650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CF1056-F7CC-4EF3-AF60-A5432200CED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="2540" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3870" yWindow="5510" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartMachineConfig" sheetId="1" r:id="rId1"/>
@@ -511,6 +511,9 @@
       </c>
     </row>
     <row r="6" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -525,9 +528,7 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="5">
         <v>1</v>
       </c>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CF1056-F7CC-4EF3-AF60-A5432200CED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9821B9-96D6-4797-81FD-F01D590345C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3870" yWindow="5510" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartMachineConfig" sheetId="1" r:id="rId1"/>
@@ -511,9 +511,6 @@
       </c>
     </row>
     <row r="6" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -528,7 +525,9 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -8,14 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9821B9-96D6-4797-81FD-F01D590345C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D68B16-DAA3-4D28-8392-4C6F95C7DB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartMachineConfig" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -511,6 +521,9 @@
       </c>
     </row>
     <row r="6" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -525,9 +538,7 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="5">
         <v>1</v>
       </c>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D68B16-DAA3-4D28-8392-4C6F95C7DB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BC1237-2E08-498E-84E4-CEA4B98B5B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -521,9 +521,6 @@
       </c>
     </row>
     <row r="6" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -538,7 +535,9 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BC1237-2E08-498E-84E4-CEA4B98B5B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB9DFED-ABF0-4CDB-91EB-29A0E21E5F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,7 +77,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +114,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -141,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -158,6 +166,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -521,6 +532,7 @@
       </c>
     </row>
     <row r="6" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="7"/>
       <c r="C6" s="5">
         <v>1</v>
       </c>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB9DFED-ABF0-4CDB-91EB-29A0E21E5F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A586B0-0375-4138-A476-0EACD0DAA6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A586B0-0375-4138-A476-0EACD0DAA6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4AD166-B849-4EFF-B662-D76693D79BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -532,7 +532,9 @@
       </c>
     </row>
     <row r="6" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -547,9 +549,7 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="5">
         <v>1</v>
       </c>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4AD166-B849-4EFF-B662-D76693D79BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5DC4EA-4D68-413C-8458-57BFA878972B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -532,9 +532,7 @@
       </c>
     </row>
     <row r="6" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="B6" s="7"/>
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -549,7 +547,9 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5DC4EA-4D68-413C-8458-57BFA878972B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCAEFDB-0814-4BF0-9EB9-FE6BB2096B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,7 +477,7 @@
   <dimension ref="B3:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCAEFDB-0814-4BF0-9EB9-FE6BB2096B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FECB4A2-1EFC-44B7-8D79-2FBD22FE5650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="StartMachineConfig" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -477,7 +478,7 @@
   <dimension ref="B3:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FECB4A2-1EFC-44B7-8D79-2FBD22FE5650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792FEBC6-A5D8-429E-B640-C40D69A6016A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="StartMachineConfig" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -533,7 +532,9 @@
       </c>
     </row>
     <row r="6" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -548,9 +549,7 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="5">
         <v>1</v>
       </c>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792FEBC6-A5D8-429E-B640-C40D69A6016A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510ADF53-3C75-431C-B0FC-3E22201DA621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -532,9 +532,7 @@
       </c>
     </row>
     <row r="6" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="B6" s="7"/>
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -549,7 +547,9 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510ADF53-3C75-431C-B0FC-3E22201DA621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC176CE1-8A9B-4E32-8FB9-263E10C0410B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC176CE1-8A9B-4E32-8FB9-263E10C0410B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0273F181-75D2-4470-8381-877BFF80267A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0273F181-75D2-4470-8381-877BFF80267A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F614888-C4CF-43F8-BC9E-5384202B9783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F614888-C4CF-43F8-BC9E-5384202B9783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1C6183-5D13-4EF4-9D24-76D09AE60451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -476,7 +476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -484,7 +484,9 @@
   <cols>
     <col min="1" max="1" width="21.08984375" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.7265625" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.6328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23.7265625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="24" style="3" customWidth="1"/>
     <col min="6" max="6" width="13.90625" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1C6183-5D13-4EF4-9D24-76D09AE60451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97908AE0-4FDE-4BA4-BC63-54BB9F5865A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -534,7 +534,9 @@
       </c>
     </row>
     <row r="6" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -549,9 +551,7 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="5">
         <v>1</v>
       </c>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97908AE0-4FDE-4BA4-BC63-54BB9F5865A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFA1538-E708-4362-BD10-D91B350F7939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartMachineConfig" sheetId="1" r:id="rId1"/>
@@ -477,7 +477,7 @@
   <dimension ref="B3:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFA1538-E708-4362-BD10-D91B350F7939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7658A9-5EE9-47D1-9827-8CBCF84A739A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartMachineConfig" sheetId="1" r:id="rId1"/>
@@ -477,7 +477,7 @@
   <dimension ref="B3:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -534,9 +534,7 @@
       </c>
     </row>
     <row r="6" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="B6" s="7"/>
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -551,7 +549,9 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7658A9-5EE9-47D1-9827-8CBCF84A739A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0917C7E-5A7E-4A5F-BFFA-D36203BAF3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0917C7E-5A7E-4A5F-BFFA-D36203BAF3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF73F268-3DEC-4591-9309-33019C0A5AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF73F268-3DEC-4591-9309-33019C0A5AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF491E63-2F41-4D7C-9AA7-2A0639CD9887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7930" yWindow="7460" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartMachineConfig" sheetId="1" r:id="rId1"/>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF491E63-2F41-4D7C-9AA7-2A0639CD9887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029E1BC2-84C6-41AD-BE7A-5FD46F783D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7930" yWindow="7460" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartMachineConfig" sheetId="1" r:id="rId1"/>
@@ -534,7 +534,9 @@
       </c>
     </row>
     <row r="6" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -549,9 +551,7 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="5">
         <v>1</v>
       </c>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029E1BC2-84C6-41AD-BE7A-5FD46F783D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16505DCA-C5AC-4E47-9F2F-788AEA0EA4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -534,9 +534,7 @@
       </c>
     </row>
     <row r="6" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="B6" s="7"/>
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -551,7 +549,9 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16505DCA-C5AC-4E47-9F2F-788AEA0EA4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A46D6E8-202B-492D-9A7E-B354A85AB395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A46D6E8-202B-492D-9A7E-B354A85AB395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC1056C-B927-465B-8C66-941765CBF1C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartMachineConfig" sheetId="1" r:id="rId1"/>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC1056C-B927-465B-8C66-941765CBF1C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2B7136-9C82-463C-92EE-0A864A0842C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2B7136-9C82-463C-92EE-0A864A0842C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7CFB3E-AAA8-4684-BFC2-EF023A105C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3760" yWindow="3760" windowWidth="19200" windowHeight="11220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartMachineConfig" sheetId="1" r:id="rId1"/>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7CFB3E-AAA8-4684-BFC2-EF023A105C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FF438F-894B-4709-B040-8B824CDB116E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3760" yWindow="3760" windowWidth="19200" windowHeight="11220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="28800" windowHeight="15200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartMachineConfig" sheetId="1" r:id="rId1"/>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FF438F-894B-4709-B040-8B824CDB116E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB298122-1E9C-4953-89E8-101D2E6318B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="28800" windowHeight="15200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2660" yWindow="2660" windowWidth="28800" windowHeight="15310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartMachineConfig" sheetId="1" r:id="rId1"/>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB298122-1E9C-4953-89E8-101D2E6318B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8562D5E0-42FB-44DB-85A7-55C1D76E7B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2660" yWindow="2660" windowWidth="28800" windowHeight="15310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -534,7 +534,9 @@
       </c>
     </row>
     <row r="6" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -549,9 +551,7 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="5">
         <v>1</v>
       </c>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8562D5E0-42FB-44DB-85A7-55C1D76E7B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F044FC-BBD5-46E6-BC0C-D937902E91A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="2660" windowWidth="28800" windowHeight="15310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="28800" windowHeight="15310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartMachineConfig" sheetId="1" r:id="rId1"/>
@@ -534,9 +534,7 @@
       </c>
     </row>
     <row r="6" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="B6" s="7"/>
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -551,7 +549,9 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F044FC-BBD5-46E6-BC0C-D937902E91A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D76E16D-9E2F-4E41-82AF-3DBB71558C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1520" yWindow="1520" windowWidth="28800" windowHeight="15310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -534,7 +534,9 @@
       </c>
     </row>
     <row r="6" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -549,9 +551,7 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="5">
         <v>1</v>
       </c>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D76E16D-9E2F-4E41-82AF-3DBB71558C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9100C77-572B-439E-BE0F-618F9CB908F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="28800" windowHeight="15310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartMachineConfig" sheetId="1" r:id="rId1"/>
@@ -476,7 +476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9100C77-572B-439E-BE0F-618F9CB908F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCA89BD-8FB0-401D-AD82-5663DF7E0B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,7 +477,7 @@
   <dimension ref="B3:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -534,9 +534,7 @@
       </c>
     </row>
     <row r="6" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="B6" s="7"/>
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -551,7 +549,9 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCA89BD-8FB0-401D-AD82-5663DF7E0B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44473213-3EE9-4562-B0B6-96BF06E96B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartMachineConfig" sheetId="1" r:id="rId1"/>
@@ -476,8 +476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -534,7 +534,9 @@
       </c>
     </row>
     <row r="6" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -549,9 +551,7 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="5">
         <v>1</v>
       </c>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44473213-3EE9-4562-B0B6-96BF06E96B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223E5C49-B694-40EF-8D50-3D98BE47302A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartMachineConfig" sheetId="1" r:id="rId1"/>
@@ -534,9 +534,7 @@
       </c>
     </row>
     <row r="6" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="B6" s="7"/>
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -551,7 +549,9 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223E5C49-B694-40EF-8D50-3D98BE47302A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF138956-EFAC-40B6-8B4E-9107BDE8B70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,7 +77,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,14 +114,6 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <i/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -149,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -166,9 +158,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -534,7 +523,9 @@
       </c>
     </row>
     <row r="6" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -549,9 +540,7 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="5">
         <v>1</v>
       </c>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF138956-EFAC-40B6-8B4E-9107BDE8B70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AE55FA-5831-424E-95AD-91962E8F9304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -465,7 +465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AE55FA-5831-424E-95AD-91962E8F9304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB75AA1-0EEC-47A4-839A-D8E0E7802C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -523,9 +523,6 @@
       </c>
     </row>
     <row r="6" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -540,7 +537,9 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB75AA1-0EEC-47A4-839A-D8E0E7802C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5FF659-1A32-48C4-9C00-B12699553FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Id</t>
   </si>
@@ -70,6 +70,10 @@
   </si>
   <si>
     <t>#</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -466,7 +470,7 @@
   <dimension ref="B3:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -523,6 +527,9 @@
       </c>
     </row>
     <row r="6" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -538,7 +545,7 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5FF659-1A32-48C4-9C00-B12699553FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDA5422-54F7-4F54-8136-1A7CF5D5D494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Id</t>
   </si>
@@ -70,10 +70,6 @@
   </si>
   <si>
     <t>#</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -469,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -544,9 +540,7 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="5">
         <v>1</v>
       </c>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDA5422-54F7-4F54-8136-1A7CF5D5D494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2CC859-7ADF-4DDD-9CC5-5D579AAADB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -465,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -523,9 +523,6 @@
       </c>
     </row>
     <row r="6" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -540,7 +537,9 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2CC859-7ADF-4DDD-9CC5-5D579AAADB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BF7FBF-8391-4E36-90F3-3176717C7BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -466,7 +466,7 @@
   <dimension ref="B3:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -523,6 +523,9 @@
       </c>
     </row>
     <row r="6" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -537,9 +540,7 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="5">
         <v>1</v>
       </c>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BF7FBF-8391-4E36-90F3-3176717C7BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF019D3A-578A-4B51-B28D-3356548022B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -465,7 +465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF019D3A-578A-4B51-B28D-3356548022B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97841292-8910-4C3D-9315-5ABE64E21550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -1,31 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97841292-8910-4C3D-9315-5ABE64E21550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="15260"/>
   </bookViews>
   <sheets>
     <sheet name="StartMachineConfig" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -65,19 +49,23 @@
     <t>59.110.220.207</t>
   </si>
   <si>
+    <t>#</t>
+  </si>
+  <si>
     <t>127.0.0.1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,7 +77,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -97,25 +84,154 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,8 +244,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -137,11 +439,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -156,21 +700,62 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -457,30 +1042,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B3:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="21.08984375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="23.7265625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.0865384615385" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7307692307692" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.6346153846154" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23.7307692307692" style="3" customWidth="1"/>
     <col min="5" max="5" width="24" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.90625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.9038461538462" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:6">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -494,7 +1079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:6">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -508,7 +1093,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:6">
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
@@ -522,10 +1107,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
+    <row r="6" s="1" customFormat="1" spans="3:6">
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -539,24 +1121,26 @@
         <v>10007</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="1"/>
+    <row r="7" spans="2:6">
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>11</v>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="F7" s="5">
         <v>10007</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -43,13 +43,13 @@
     <t>string</t>
   </si>
   <si>
+    <t>#</t>
+  </si>
+  <si>
     <t>172.29.230.210</t>
   </si>
   <si>
     <t>59.110.220.207</t>
-  </si>
-  <si>
-    <t>#</t>
   </si>
   <si>
     <t>127.0.0.1</t>
@@ -60,10 +60,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -88,45 +88,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,6 +131,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -155,9 +147,69 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,59 +225,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,31 +246,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,151 +426,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,30 +437,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -473,26 +449,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,13 +473,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,151 +502,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1107,24 +1107,25 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:6">
+    <row r="6" s="1" customFormat="1" spans="2:6">
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C6" s="5">
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" s="5">
         <v>10007</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="5">
         <v>1</v>
       </c>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15260"/>
+    <workbookView windowHeight="15400"/>
   </bookViews>
   <sheets>
     <sheet name="StartMachineConfig" sheetId="1" r:id="rId1"/>
@@ -43,13 +43,13 @@
     <t>string</t>
   </si>
   <si>
+    <t>172.29.230.210</t>
+  </si>
+  <si>
+    <t>59.110.220.207</t>
+  </si>
+  <si>
     <t>#</t>
-  </si>
-  <si>
-    <t>172.29.230.210</t>
-  </si>
-  <si>
-    <t>59.110.220.207</t>
   </si>
   <si>
     <t>127.0.0.1</t>
@@ -60,10 +60,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -88,7 +88,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -96,28 +112,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,6 +125,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -139,23 +141,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -163,13 +157,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -179,7 +166,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,39 +210,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,43 +246,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,139 +420,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,8 +443,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -453,7 +453,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,21 +469,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,8 +490,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -514,11 +501,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,148 +540,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1051,7 +1051,7 @@
   <dimension ref="B3:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="6" outlineLevelCol="5"/>
@@ -1107,25 +1107,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="2:6">
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
+    <row r="6" s="1" customFormat="1" spans="3:6">
       <c r="C6" s="5">
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="F6" s="5">
         <v>10007</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15400"/>
+    <workbookView windowHeight="22460"/>
   </bookViews>
   <sheets>
     <sheet name="StartMachineConfig" sheetId="1" r:id="rId1"/>
@@ -62,8 +62,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -88,12 +88,26 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -104,14 +118,98 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,107 +223,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,19 +252,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,85 +414,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,67 +426,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,8 +443,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,15 +523,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -522,166 +537,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1051,7 +1051,7 @@
   <dimension ref="B3:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="6" outlineLevelCol="5"/>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="22460"/>
+    <workbookView windowHeight="15400"/>
   </bookViews>
   <sheets>
     <sheet name="StartMachineConfig" sheetId="1" r:id="rId1"/>
@@ -101,24 +101,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,6 +124,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -142,90 +165,67 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,187 +246,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,6 +458,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -473,11 +482,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,21 +527,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -522,163 +537,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1051,7 +1051,7 @@
   <dimension ref="B3:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="6" outlineLevelCol="5"/>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15400"/>
+    <workbookView windowHeight="15200"/>
   </bookViews>
   <sheets>
     <sheet name="StartMachineConfig" sheetId="1" r:id="rId1"/>
@@ -60,10 +60,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -101,11 +101,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -124,6 +123,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -147,9 +170,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,69 +224,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,49 +246,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,133 +420,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,7 +453,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,6 +477,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -482,36 +508,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -527,158 +523,162 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1050,8 +1050,8 @@
   <sheetPr/>
   <dimension ref="B3:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="6" outlineLevelCol="5"/>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Id</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>127.0.0.1</t>
+  </si>
+  <si>
+    <t>192.168.100.8</t>
   </si>
 </sst>
 </file>
@@ -60,10 +63,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -88,6 +91,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -102,14 +128,70 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,31 +207,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,68 +224,6 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -246,31 +249,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,151 +393,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,39 +440,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -484,11 +454,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,151 +505,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1048,13 +1051,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:F7"/>
+  <dimension ref="B3:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="21.0865384615385" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.7307692307692" style="2" customWidth="1"/>
@@ -1138,6 +1141,23 @@
         <v>10007</v>
       </c>
     </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1007</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15200"/>
+    <workbookView windowHeight="22400"/>
   </bookViews>
   <sheets>
     <sheet name="StartMachineConfig" sheetId="1" r:id="rId1"/>
@@ -43,13 +43,13 @@
     <t>string</t>
   </si>
   <si>
+    <t>#</t>
+  </si>
+  <si>
     <t>172.29.230.210</t>
   </si>
   <si>
     <t>59.110.220.207</t>
-  </si>
-  <si>
-    <t>#</t>
   </si>
   <si>
     <t>127.0.0.1</t>
@@ -63,10 +63,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -91,6 +91,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -98,37 +112,69 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,9 +188,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,77 +227,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,187 +249,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,62 +446,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,6 +476,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -543,19 +543,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -564,131 +564,131 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -702,6 +702,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1054,7 +1057,7 @@
   <dimension ref="B3:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="7" outlineLevelCol="5"/>
@@ -1110,15 +1113,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:6">
+    <row r="6" s="1" customFormat="1" spans="2:6">
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C6" s="5">
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" s="5">
         <v>10007</v>
@@ -1126,7 +1132,7 @@
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -1142,9 +1148,7 @@
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="B8" s="6"/>
       <c r="C8" s="3">
         <v>1</v>
       </c>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -63,10 +63,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -98,14 +98,122 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,114 +228,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -249,31 +249,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,145 +417,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,22 +456,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,30 +517,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -540,148 +525,163 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -43,13 +43,13 @@
     <t>string</t>
   </si>
   <si>
+    <t>172.29.230.210</t>
+  </si>
+  <si>
+    <t>59.110.220.207</t>
+  </si>
+  <si>
     <t>#</t>
-  </si>
-  <si>
-    <t>172.29.230.210</t>
-  </si>
-  <si>
-    <t>59.110.220.207</t>
   </si>
   <si>
     <t>127.0.0.1</t>
@@ -63,10 +63,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -112,6 +112,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -129,6 +137,75 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,93 +219,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,12 +255,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -273,49 +393,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,25 +417,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,79 +429,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,21 +461,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -500,16 +485,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -540,145 +525,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1113,18 +1113,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="2:6">
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
+    <row r="6" s="1" customFormat="1" spans="3:6">
       <c r="C6" s="5">
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="F6" s="5">
         <v>10007</v>
@@ -1132,7 +1129,7 @@
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -1148,7 +1145,9 @@
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -43,13 +43,13 @@
     <t>string</t>
   </si>
   <si>
+    <t>#</t>
+  </si>
+  <si>
     <t>172.29.230.210</t>
   </si>
   <si>
     <t>59.110.220.207</t>
-  </si>
-  <si>
-    <t>#</t>
   </si>
   <si>
     <t>127.0.0.1</t>
@@ -64,8 +64,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -90,10 +90,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -104,8 +105,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -122,21 +152,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,6 +166,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -158,9 +197,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,14 +206,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,51 +229,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,187 +249,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,26 +446,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,6 +478,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,6 +523,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -510,181 +540,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1113,15 +1113,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:6">
+    <row r="6" s="1" customFormat="1" spans="2:6">
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C6" s="5">
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" s="5">
         <v>10007</v>
@@ -1129,7 +1132,7 @@
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -1145,9 +1148,7 @@
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="B8" s="6"/>
       <c r="C8" s="3">
         <v>1</v>
       </c>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -65,8 +65,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -90,6 +90,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -105,30 +112,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,6 +136,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -150,85 +212,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,25 +249,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,19 +381,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,19 +417,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,109 +429,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,21 +448,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,8 +470,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,30 +515,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -540,151 +525,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -43,13 +43,13 @@
     <t>string</t>
   </si>
   <si>
+    <t>172.29.230.210</t>
+  </si>
+  <si>
+    <t>59.110.220.207</t>
+  </si>
+  <si>
     <t>#</t>
-  </si>
-  <si>
-    <t>172.29.230.210</t>
-  </si>
-  <si>
-    <t>59.110.220.207</t>
   </si>
   <si>
     <t>127.0.0.1</t>
@@ -63,10 +63,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -91,6 +91,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -99,12 +113,90 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -112,17 +204,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,97 +228,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -249,67 +249,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,13 +387,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,7 +399,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,85 +411,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,8 +446,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -467,11 +467,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,17 +506,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,165 +532,159 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1057,7 +1057,7 @@
   <dimension ref="B3:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="7" outlineLevelCol="5"/>
@@ -1113,18 +1113,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="2:6">
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
+    <row r="6" s="1" customFormat="1" spans="3:6">
       <c r="C6" s="5">
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="F6" s="5">
         <v>10007</v>
@@ -1132,7 +1129,7 @@
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -1148,7 +1145,9 @@
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -63,10 +63,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -97,35 +97,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -134,6 +105,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -142,9 +158,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,73 +197,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -249,85 +249,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,97 +417,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,6 +452,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -463,30 +472,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,6 +517,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -543,145 +543,145 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -43,13 +43,13 @@
     <t>string</t>
   </si>
   <si>
+    <t>#</t>
+  </si>
+  <si>
     <t>172.29.230.210</t>
   </si>
   <si>
     <t>59.110.220.207</t>
-  </si>
-  <si>
-    <t>#</t>
   </si>
   <si>
     <t>127.0.0.1</t>
@@ -97,6 +97,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -106,21 +120,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,9 +150,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,6 +170,44 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -160,68 +221,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,43 +249,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,7 +375,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,31 +387,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,91 +411,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,21 +476,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -513,6 +498,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,145 +543,145 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1057,7 +1057,7 @@
   <dimension ref="B3:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="7" outlineLevelCol="5"/>
@@ -1113,15 +1113,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:6">
+    <row r="6" s="1" customFormat="1" spans="2:6">
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C6" s="5">
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" s="5">
         <v>10007</v>
@@ -1129,7 +1132,7 @@
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -1145,9 +1148,7 @@
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="B8" s="6"/>
       <c r="C8" s="3">
         <v>1</v>
       </c>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -64,9 +64,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -105,7 +105,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,29 +127,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -150,62 +135,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,8 +167,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -228,7 +206,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,31 +249,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,13 +405,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,31 +417,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,97 +429,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,6 +448,21 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,17 +517,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,157 +540,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -43,13 +43,13 @@
     <t>string</t>
   </si>
   <si>
+    <t>172.29.230.210</t>
+  </si>
+  <si>
+    <t>59.110.220.207</t>
+  </si>
+  <si>
     <t>#</t>
-  </si>
-  <si>
-    <t>172.29.230.210</t>
-  </si>
-  <si>
-    <t>59.110.220.207</t>
   </si>
   <si>
     <t>127.0.0.1</t>
@@ -63,10 +63,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -91,13 +91,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -106,14 +99,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,6 +112,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -135,25 +181,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,16 +211,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,37 +221,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,13 +229,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,91 +249,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,91 +429,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,23 +446,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,7 +456,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,21 +500,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -513,15 +507,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,151 +525,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1113,18 +1113,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="2:6">
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
+    <row r="6" s="1" customFormat="1" spans="3:6">
       <c r="C6" s="5">
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="F6" s="5">
         <v>10007</v>
@@ -1132,7 +1129,7 @@
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -1148,7 +1145,9 @@
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -43,13 +43,13 @@
     <t>string</t>
   </si>
   <si>
+    <t>#</t>
+  </si>
+  <si>
     <t>172.29.230.210</t>
   </si>
   <si>
     <t>59.110.220.207</t>
-  </si>
-  <si>
-    <t>#</t>
   </si>
   <si>
     <t>127.0.0.1</t>
@@ -63,10 +63,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -91,14 +91,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,97 +150,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -213,22 +160,75 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,6 +255,120 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -267,31 +381,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,133 +429,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,8 +446,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,11 +461,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,21 +496,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,148 +543,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1113,15 +1113,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:6">
+    <row r="6" s="1" customFormat="1" spans="2:6">
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C6" s="5">
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" s="5">
         <v>10007</v>
@@ -1129,7 +1132,7 @@
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -1145,9 +1148,7 @@
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="B8" s="6"/>
       <c r="C8" s="3">
         <v>1</v>
       </c>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="22400"/>
+    <workbookView windowHeight="22320"/>
   </bookViews>
   <sheets>
     <sheet name="StartMachineConfig" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
     <t>127.0.0.1</t>
   </si>
   <si>
-    <t>192.168.100.8</t>
+    <t>192.168.1.100</t>
   </si>
 </sst>
 </file>
@@ -63,10 +63,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -104,6 +104,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -114,14 +169,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,101 +211,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,49 +255,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,127 +411,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,7 +456,42 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,11 +511,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,186 +540,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1057,7 +1057,7 @@
   <dimension ref="B3:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="7" outlineLevelCol="5"/>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -65,8 +65,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -104,6 +104,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -111,25 +127,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,17 +168,39 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -167,9 +212,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,58 +229,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,97 +255,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,79 +429,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,6 +462,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -476,11 +491,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,17 +517,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,160 +540,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1057,7 +1057,7 @@
   <dimension ref="B3:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="7" outlineLevelCol="5"/>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -43,13 +43,13 @@
     <t>string</t>
   </si>
   <si>
+    <t>172.29.230.210</t>
+  </si>
+  <si>
+    <t>59.110.220.207</t>
+  </si>
+  <si>
     <t>#</t>
-  </si>
-  <si>
-    <t>172.29.230.210</t>
-  </si>
-  <si>
-    <t>59.110.220.207</t>
   </si>
   <si>
     <t>127.0.0.1</t>
@@ -64,9 +64,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -104,6 +104,121 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -112,123 +227,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,181 +255,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,6 +448,45 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,6 +515,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -490,195 +540,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1057,7 +1057,7 @@
   <dimension ref="B3:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="7" outlineLevelCol="5"/>
@@ -1113,18 +1113,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="2:6">
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
+    <row r="6" s="1" customFormat="1" spans="3:6">
       <c r="C6" s="5">
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="F6" s="5">
         <v>10007</v>
@@ -1132,7 +1129,7 @@
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -1148,7 +1145,9 @@
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -43,13 +43,13 @@
     <t>string</t>
   </si>
   <si>
+    <t>#</t>
+  </si>
+  <si>
     <t>172.29.230.210</t>
   </si>
   <si>
     <t>59.110.220.207</t>
-  </si>
-  <si>
-    <t>#</t>
   </si>
   <si>
     <t>127.0.0.1</t>
@@ -63,10 +63,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -104,32 +104,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,7 +152,68 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,53 +227,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,175 +261,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,11 +452,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,6 +506,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -490,72 +540,22 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -564,121 +564,121 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1057,7 +1057,7 @@
   <dimension ref="B3:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="7" outlineLevelCol="5"/>
@@ -1113,15 +1113,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:6">
+    <row r="6" s="1" customFormat="1" spans="2:6">
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C6" s="5">
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" s="5">
         <v>10007</v>
@@ -1129,7 +1132,7 @@
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -1145,9 +1148,7 @@
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="B8" s="6"/>
       <c r="C8" s="3">
         <v>1</v>
       </c>
